--- a/tocheck/Perezlistnombrenoacceptado.xlsx
+++ b/tocheck/Perezlistnombrenoacceptado.xlsx
@@ -15,6 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -52,11 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,11 +355,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="20" max="20" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
@@ -370,80 +377,100 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Current_genus</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Current_species</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Current_name_author</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Current_subspecies</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>synonyms</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>vouchers</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>sp6curr</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>habit</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Current_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Current_name_author</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>synonyms</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>sp6curr</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>vouchers</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>habit</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>sp6prior</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>sp6</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Name_matched</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Name_matched_rank</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Accepted_name</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Accepted_name_author</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Accepted_name_rank</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Accepted_family</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>tnrsdate</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>currnamechanged</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sp4</t>
         </is>
@@ -452,62 +479,57 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Magnoliales</t>
+          <t>Sapindales</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Annonaceae</t>
+          <t>Rutaceae</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Guatteria recurvisepala</t>
+          <t>Citrus</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R.E. Fr.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>guatre</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+          <t>aurantium</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Citrus sinensis</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>citrsi</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>Freestanding</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>guatre</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>guatre</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Guatteria recurvisepala</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>species</t>
+          <t>Citrus aurantium</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Guatteria ucayalina</t>
+          <t>citrsi</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Huber</t>
+          <t>Citrus aurantium</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -517,67 +539,90 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Annonaceae</t>
-        </is>
-      </c>
-      <c r="Q2" t="b">
+          <t>Citrus x aurantium</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>species</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Rutaceae</t>
+        </is>
+      </c>
+      <c r="T2" s="2">
+        <v>45905</v>
+      </c>
+      <c r="U2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Magnoliales</t>
+          <t>Sapindales</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Annonaceae</t>
+          <t>Meliaceae</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Polyalthia longifolia</t>
+          <t>Guarea</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(Sonn.) Thwaites</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>polylo</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+          <t>grandifolia</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DC.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Guarea megantha</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>guargr</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>Freestanding</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>polylo</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Polyalthia longifolia</t>
+          <t>Guarea grandifolia</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>guargr</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Monoon longifolium</t>
+          <t>guargr</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>(Sonn.) B.Xue &amp; R.M.K.Saunders</t>
+          <t>Guarea grandifolia</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -587,11 +632,34 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Annonaceae</t>
-        </is>
-      </c>
-      <c r="Q3" t="b">
+          <t>Guarea guidonia</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>(L.) Sleumer</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>species</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Meliaceae</t>
+        </is>
+      </c>
+      <c r="T3" s="2">
+        <v>45905</v>
+      </c>
+      <c r="U3" t="b">
         <v>0</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>GUA1</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -607,117 +675,140 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Ilex</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>fortunensis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>W.J. Hahn</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ilexfo</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Freestanding</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>Ilex fortunensis</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>W.J. Hahn</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>ilexfo</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Freestanding</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>ilexfo</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Ilex fortunensis</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>species</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>species</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>Ilex hahnii</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Doweld</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>species</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>species</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>Aquifoliaceae</t>
         </is>
       </c>
-      <c r="Q4" t="b">
+      <c r="T4" s="2">
+        <v>45905</v>
+      </c>
+      <c r="U4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Arecales</t>
+          <t>Gentianales</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arecaceae</t>
+          <t>Rubiaceae</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Chamaedorea murriensis</t>
+          <t>Morinda</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Galeano</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>cha1mu</t>
+          <t>seibertii</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(Standl.) Steyerm.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Appunia seibertii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>R. Pérez 2284 (PMA, SCZ)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>appuse</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>Freestanding</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>cha1mu</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Chamaedorea murriensis</t>
+          <t>Morinda seibertii</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>appuse</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Chamaedorea warscewiczii</t>
+          <t>appuse</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>H.Wendl.</t>
+          <t>Morinda seibertii</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -727,67 +818,85 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Arecaceae</t>
-        </is>
-      </c>
-      <c r="Q5" t="b">
+          <t>Appunia seibertii</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Standl.</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>species</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Rubiaceae</t>
+        </is>
+      </c>
+      <c r="T5" s="2">
+        <v>45905</v>
+      </c>
+      <c r="U5" t="b">
         <v>0</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>APPS</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Arecales</t>
+          <t>Sapindales</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Arecaceae</t>
+          <t>Rutaceae</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pritchardia grandis</t>
+          <t>Ravenia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(H. Wendl.) W. Bull</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>pritgr</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+          <t>rosea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Standl.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>ravero</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>Freestanding</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>pritgr</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Pritchardia grandis</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>species</t>
+          <t>Ravenia rosea</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Licuala grandis</t>
+          <t>ravero</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>(T.Moore) H.Wendl.</t>
+          <t>Ravenia rosea</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -797,77 +906,80 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Arecaceae</t>
-        </is>
-      </c>
-      <c r="Q6" t="b">
+          <t>Ravenia spectabilis subsp. spectabilis</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>subspecies</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Rutaceae</t>
+        </is>
+      </c>
+      <c r="T6" s="2">
+        <v>45905</v>
+      </c>
+      <c r="U6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sapindales</t>
+          <t>Malpighiales</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Meliaceae</t>
+          <t>Rhizophoraceae</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Guarea grandifolia</t>
+          <t>Rhizophora</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC.</t>
+          <t>harrisonii</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Revisar Guarea megantha</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>guargr</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+          <t>Leechm.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Rhizophora brevistyla</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>rhizha</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>Freestanding</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>guargr</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>guargr</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Guarea grandifolia</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>species</t>
+          <t>Rhizophora harrisonii</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Guarea guidonia</t>
+          <t>rhizha</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>(L.) Sleumer</t>
+          <t>Rhizophora harrisonii</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -877,237 +989,286 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Meliaceae</t>
-        </is>
-      </c>
-      <c r="Q7" t="b">
+          <t>Rhizophora x harrisonii</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Leechm.</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>species</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Rhizophoraceae</t>
+        </is>
+      </c>
+      <c r="T7" s="2">
+        <v>45905</v>
+      </c>
+      <c r="U7" t="b">
         <v>0</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>GUA1</t>
-        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Malpighiales</t>
+          <t>Fabales</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rhizophoraceae</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Rhizophora harrisonii</t>
+          <t>Swartzia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Leechm.</t>
+          <t>simplex</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Rhizophora brevistyla</t>
+          <t>(Sw.) Spreng.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>rhizha</t>
+          <t>var. grandiflora</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>R. Pérez 2188 (PMA, SCZ)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>swars1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>Freestanding</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>rhizha</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Rhizophora harrisonii</t>
+          <t>Swartzia simplex var. grandiflora</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>swars1</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Rhizophora x harrisonii</t>
+          <t>swars1</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Leechm.</t>
+          <t>Swartzia simplex var. grandiflora</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>variety</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Rhizophoraceae</t>
-        </is>
-      </c>
-      <c r="Q8" t="b">
+          <t>Swartzia simplex</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>(Sw.) Spreng.</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>species</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="T8" s="2">
+        <v>45905</v>
+      </c>
+      <c r="U8" t="b">
         <v>0</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>SWA1</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Gentianales</t>
+          <t>Fabales</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rubiaceae</t>
+          <t>Fabaceae</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Morinda seibertii</t>
+          <t>Swartzia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(Standl.) Steyerm.</t>
+          <t>simplex</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Appunia seibertii</t>
+          <t>(Sw.) Spreng.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>appuse</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>R. Pérez 2284</t>
+          <t>var. continentalis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>R. Pérez 1973 y 2021 (PMA, SCZ)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>swars2</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>Freestanding</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>appuse</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>appuse</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Morinda seibertii</t>
+          <t>Swartzia simplex var. continentalis</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>swars2</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Appunia seibertii</t>
+          <t>swars2</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Standl.</t>
+          <t>Swartzia simplex var. continentalis</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>variety</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Rubiaceae</t>
-        </is>
-      </c>
-      <c r="Q9" t="b">
+          <t>Swartzia simplex</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>(Sw.) Spreng.</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>species</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Fabaceae</t>
+        </is>
+      </c>
+      <c r="T9" s="2">
+        <v>45905</v>
+      </c>
+      <c r="U9" t="b">
         <v>0</v>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>APPS</t>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>SWA2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sapindales</t>
+          <t>Asterales</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rutaceae</t>
+          <t>Asteraceae</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Citrus aurantium</t>
+          <t>Bidens</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>citrau</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Freestanding</t>
+          <t>boquetiensis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Roseman</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>bidebo</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>citrau</t>
+          <t>Climbing</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Citrus aurantium</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>species</t>
+          <t>Bidens boquetiensis</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Citrus x aurantium</t>
+          <t>bidebo</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Bidens boquetiensis</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1117,441 +1278,122 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Rutaceae</t>
-        </is>
-      </c>
-      <c r="Q10" t="b">
+          <t>Bidens reptans</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>G.Don</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>species</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Asteraceae</t>
+        </is>
+      </c>
+      <c r="T10" s="2">
+        <v>45905</v>
+      </c>
+      <c r="U10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sapindales</t>
+          <t>Gentianales</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rutaceae</t>
+          <t>Apocynaceae</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ravenia rosea</t>
+          <t>Vailia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Standl.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>ravero</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Freestanding</t>
+          <t>anomala</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(Brandegee) W.D.Stevens</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Blepharodon mucronatum</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>blepmu</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>ravero</t>
+          <t>Climbing</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Ravenia rosea</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>species</t>
+          <t>Vailia anomala</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Ravenia spectabilis subsp. spectabilis</t>
+          <t>blepmu</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Vailia anomala</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>subspecies</t>
+          <t>species</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Rutaceae</t>
-        </is>
-      </c>
-      <c r="Q11" t="b">
+          <t>Blepharodon mucronatum</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>(Schltdl.) Decne.</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>species</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Apocynaceae</t>
+        </is>
+      </c>
+      <c r="T11" s="2">
+        <v>45905</v>
+      </c>
+      <c r="U11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Solanales</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Solanaceae</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Brugmansia candida</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Pers.</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Brugmansia candida</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>brugca</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Freestanding</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>brugca</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Brugmansia candida</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>species</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Brugmansia x candida</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Pers.</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>species</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Solanaceae</t>
-        </is>
-      </c>
-      <c r="Q12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Gentianales</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Apocynaceae</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Vailia anomala</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>(Brandegee) W.D.Stevens</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Blepharodon mucronatum</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>blepmu</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Climbing</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>blepmu</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Vailia anomala</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>species</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Blepharodon mucronatum</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>(Schltdl.) Decne.</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>species</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Apocynaceae</t>
-        </is>
-      </c>
-      <c r="Q13" t="b">
-        <v>0</v>
-      </c>
-      <c r="R13" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>BLEM</t>
         </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Asterales</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Asteraceae</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Bidens boquetiensis</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Roseman</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>bidebo</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Climbing</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>bidebo</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Bidens boquetiensis</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>species</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Bidens reptans</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>G.Don</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>species</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Asteraceae</t>
-        </is>
-      </c>
-      <c r="Q14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Cucurbitales</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Cucurbitaceae</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Gurania brevisepala</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>O.L. Cortés</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>gurabr</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Climbing</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>gurabr</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Gurania brevisepala</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>species</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Gurania lobata</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>(L.) Pruski</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>species</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Cucurbitaceae</t>
-        </is>
-      </c>
-      <c r="Q15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Fabales</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Fabaceae</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Pueraria phaseoloides</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>(Roxb.) Benth.</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>puerph</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Climbing</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>puerph</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Pueraria phaseoloides</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>species</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Neustanthus phaseoloides</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>(Roxb.) Benth.</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>species</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Fabaceae</t>
-        </is>
-      </c>
-      <c r="Q16" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tocheck/Perezlistnombrenoacceptado.xlsx
+++ b/tocheck/Perezlistnombrenoacceptado.xlsx
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="T2" s="2">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="U2" t="b">
         <v>0</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="T3" s="2">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="U3" t="b">
         <v>0</v>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="T4" s="2">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="U4" t="b">
         <v>0</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="T5" s="2">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="U5" t="b">
         <v>0</v>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="T6" s="2">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="U6" t="b">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="T7" s="2">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="U7" t="b">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="T8" s="2">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="U8" t="b">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="T9" s="2">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="U9" t="b">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="T10" s="2">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="U10" t="b">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="T11" s="2">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="U11" t="b">
         <v>0</v>

--- a/tocheck/Perezlistnombrenoacceptado.xlsx
+++ b/tocheck/Perezlistnombrenoacceptado.xlsx
@@ -522,6 +522,11 @@
           <t>Citrus aurantium</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>citrsi</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>citrsi</t>
@@ -558,7 +563,7 @@
         </is>
       </c>
       <c r="T2" s="2">
-        <v>45909</v>
+        <v>45979</v>
       </c>
       <c r="U2" t="b">
         <v>0</v>
@@ -651,7 +656,7 @@
         </is>
       </c>
       <c r="T3" s="2">
-        <v>45909</v>
+        <v>45979</v>
       </c>
       <c r="U3" t="b">
         <v>0</v>
@@ -739,7 +744,7 @@
         </is>
       </c>
       <c r="T4" s="2">
-        <v>45909</v>
+        <v>45979</v>
       </c>
       <c r="U4" t="b">
         <v>0</v>
@@ -837,7 +842,7 @@
         </is>
       </c>
       <c r="T5" s="2">
-        <v>45909</v>
+        <v>45979</v>
       </c>
       <c r="U5" t="b">
         <v>0</v>
@@ -920,7 +925,7 @@
         </is>
       </c>
       <c r="T6" s="2">
-        <v>45909</v>
+        <v>45979</v>
       </c>
       <c r="U6" t="b">
         <v>0</v>
@@ -1008,7 +1013,7 @@
         </is>
       </c>
       <c r="T7" s="2">
-        <v>45909</v>
+        <v>45979</v>
       </c>
       <c r="U7" t="b">
         <v>0</v>
@@ -1106,7 +1111,7 @@
         </is>
       </c>
       <c r="T8" s="2">
-        <v>45909</v>
+        <v>45979</v>
       </c>
       <c r="U8" t="b">
         <v>0</v>
@@ -1209,7 +1214,7 @@
         </is>
       </c>
       <c r="T9" s="2">
-        <v>45909</v>
+        <v>45979</v>
       </c>
       <c r="U9" t="b">
         <v>0</v>
@@ -1297,7 +1302,7 @@
         </is>
       </c>
       <c r="T10" s="2">
-        <v>45909</v>
+        <v>45979</v>
       </c>
       <c r="U10" t="b">
         <v>0</v>
@@ -1385,7 +1390,7 @@
         </is>
       </c>
       <c r="T11" s="2">
-        <v>45909</v>
+        <v>45979</v>
       </c>
       <c r="U11" t="b">
         <v>0</v>
